--- a/resultados/resultados_221126.xlsx
+++ b/resultados/resultados_221126.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C837AF-4159-0B45-9CCB-EB7723260383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C65A55-080B-A14F-92F5-A57AEA1DE2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="500" windowWidth="21960" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3513,11 +3513,17 @@
       </c>
       <c r="D121">
         <f>D104+E121</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E121">
         <f>3*F121+G121</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3538,6 +3544,12 @@
         <f t="shared" ref="E122:E137" si="13">3*F122+G122</f>
         <v>0</v>
       </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -3551,11 +3563,17 @@
       </c>
       <c r="D123">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E123">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3570,11 +3588,17 @@
       </c>
       <c r="D124">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E124">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3589,11 +3613,17 @@
       </c>
       <c r="D125">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E125">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -3608,10 +3638,16 @@
       </c>
       <c r="D126">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E126">
         <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
         <v>0</v>
       </c>
     </row>
@@ -3627,11 +3663,17 @@
       </c>
       <c r="D127">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E127">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -3646,14 +3688,20 @@
       </c>
       <c r="D128">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E128">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -3665,14 +3713,20 @@
       </c>
       <c r="D129">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E129">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3684,14 +3738,20 @@
       </c>
       <c r="D130">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E130">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -3703,14 +3763,20 @@
       </c>
       <c r="D131">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E131">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -3722,14 +3788,20 @@
       </c>
       <c r="D132">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E132">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -3741,14 +3813,20 @@
       </c>
       <c r="D133">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -3760,14 +3838,20 @@
       </c>
       <c r="D134">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -3779,14 +3863,20 @@
       </c>
       <c r="D135">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E135">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -3798,14 +3888,20 @@
       </c>
       <c r="D136">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E136">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -3817,11 +3913,17 @@
       </c>
       <c r="D137">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.2">
